--- a/data/Tables/Models.xlsx
+++ b/data/Tables/Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Documents/Programmation/datascience/Datascientest/Blood_cells/BloodCellsApp/data/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36BEDF4-8626-8647-B6B9-2F8F1EEAA1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A58C5-DB1E-D441-83D0-65A06E0966D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="19620" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,10 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,8 +588,8 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.96</v>
+      <c r="G2" s="2">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.81</v>
       </c>
     </row>
@@ -634,7 +634,7 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.94</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.83</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.97</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.69</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.77</v>
       </c>
     </row>
@@ -772,7 +772,7 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.79</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.86</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.87</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
       <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -902,16 +902,16 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
       <c r="N1" t="s">
         <v>16</v>
       </c>

--- a/data/Tables/Models.xlsx
+++ b/data/Tables/Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Documents/Programmation/datascience/Datascientest/Blood_cells/BloodCellsApp/data/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A58C5-DB1E-D441-83D0-65A06E0966D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40960B55-9995-B044-88BB-4420E5E12A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="19620" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32060" yWindow="1320" windowWidth="19620" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="2" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F927C-E3FB-8140-B157-FA76EB2492EE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="2">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
